--- a/User stories.xlsx
+++ b/User stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computing\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computing\Documents\ASE_Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F290D-87CD-4AB6-B35F-BB38AE9192AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D30D3B-C597-4D17-AA72-7A776E55B3BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>so i can keep track of how much money I have</t>
   </si>
   <si>
-    <t>be able tp send money to friends and family who are on the same bank</t>
-  </si>
-  <si>
     <t>So I can help my family with money</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>be able to report any issues that I have or if I notice fraudulent activity</t>
+  </si>
+  <si>
+    <t>be able to send money to friends and family who are on the same bank</t>
   </si>
 </sst>
 </file>
@@ -2531,8 +2531,8 @@
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2659,10 +2659,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="1"/>
@@ -2685,10 +2685,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="1"/>
@@ -2711,10 +2711,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="1"/>
@@ -2735,10 +2735,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="1"/>
@@ -2759,10 +2759,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="1"/>
@@ -2783,10 +2783,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="1"/>
@@ -2807,10 +2807,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="1"/>
@@ -2828,13 +2828,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="1"/>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="1"/>
@@ -2879,10 +2879,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="1"/>
@@ -2903,10 +2903,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="1"/>

--- a/User stories.xlsx
+++ b/User stories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20407"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computing\Documents\ASE_Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D30D3B-C597-4D17-AA72-7A776E55B3BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8765778C-933E-4571-A6A7-669E052D356C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2531,8 +2531,8 @@
   <dimension ref="B1:P66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2677,7 +2677,9 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
@@ -2703,7 +2705,9 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2727,7 +2731,9 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +2757,9 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2775,7 +2783,9 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2809,9 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
@@ -2823,7 +2835,9 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2861,9 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2871,7 +2887,9 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
@@ -2895,7 +2913,9 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
